--- a/QA/Tests/FTP/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -209,7 +209,7 @@
             <v>3</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
@@ -219,12 +219,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>0</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
       </sheetData>
@@ -247,25 +247,25 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>21</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>14</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -288,7 +288,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="G1">
             <v>1</v>
@@ -296,17 +296,17 @@
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>14</v>
           </cell>
         </row>
       </sheetData>
@@ -332,22 +332,22 @@
             <v>1</v>
           </cell>
           <cell r="G1">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -699,7 +699,7 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$G$1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$G$2</f>
@@ -711,25 +711,25 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$G$4</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,23 +737,23 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <f>[4]Sheet1!$G$1</f>
+        <f>[2]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f>[4]Sheet1!$G$2</f>
+        <f>[2]Sheet1!$G$2</f>
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f>[4]Sheet1!$E$1</f>
+        <f>[2]Sheet1!$E$1</f>
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <f>[4]Sheet1!$G$5</f>
+        <f>[2]Sheet1!$G$5</f>
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f>[4]Sheet1!$G$4</f>
+        <f>[2]Sheet1!$G$4</f>
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -770,23 +770,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <f>[2]Sheet1!$G$1</f>
+        <f>[3]Sheet1!$G$1</f>
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f>[2]Sheet1!$G$2</f>
+        <f>[3]Sheet1!$G$2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f>[2]Sheet1!$E$1</f>
+        <f>[3]Sheet1!$E$1</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f>[2]Sheet1!$G$5</f>
+        <f>[3]Sheet1!$G$5</f>
         <v>14</v>
       </c>
       <c r="F4" s="1">
-        <f>[2]Sheet1!$G$4</f>
+        <f>[3]Sheet1!$G$4</f>
         <v>21</v>
       </c>
       <c r="G4" s="4"/>
@@ -798,23 +798,23 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <f>[3]Sheet1!$G$1</f>
+        <f>[4]Sheet1!$G$1</f>
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f>[3]Sheet1!$G$2</f>
+        <f>[4]Sheet1!$G$2</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>[3]Sheet1!$E$1</f>
+        <f>[4]Sheet1!$E$1</f>
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <f>[3]Sheet1!$G$5</f>
+        <f>[4]Sheet1!$G$5</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>[3]Sheet1!$G$4</f>
+        <f>[4]Sheet1!$G$4</f>
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -822,7 +822,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.64</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/FTP/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -209,12 +209,12 @@
             <v>3</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
@@ -224,7 +224,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>4</v>
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
@@ -291,22 +291,22 @@
             <v>3</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>21</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>14</v>
+            <v>22</v>
           </cell>
         </row>
       </sheetData>
@@ -332,12 +332,12 @@
             <v>1</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
@@ -347,7 +347,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -699,11 +699,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$E$1</f>
@@ -711,7 +711,7 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$G$5</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$G$4</f>
@@ -722,7 +722,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -771,11 +771,11 @@
       </c>
       <c r="B4" s="1">
         <f>[3]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <f>[3]Sheet1!$G$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <f>[3]Sheet1!$E$1</f>
@@ -783,11 +783,11 @@
       </c>
       <c r="E4" s="1">
         <f>[3]Sheet1!$G$5</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <f>[3]Sheet1!$G$4</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -799,11 +799,11 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
@@ -811,7 +811,7 @@
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
@@ -822,7 +822,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.46511627906976744</v>
+        <v>0.84090909090909094</v>
       </c>
       <c r="I7" s="3"/>
     </row>
